--- a/input_files/acfrs/Clayton_acfr_custom.xlsx
+++ b/input_files/acfrs/Clayton_acfr_custom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/input_files/acfrs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0D3AEB5-277C-0944-80D8-A1A89DA10F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3483CF00-BF26-7343-81B3-F226988CCC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="834" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -10328,8 +10328,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -13389,8 +13389,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
